--- a/documentation/documentation.xlsx
+++ b/documentation/documentation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\root\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93091F0-8353-48CD-9263-C67263BF6AE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -758,372 +764,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1131,336 +789,173 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1471,7 +966,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1499,154 +994,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1705,7 +1086,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1822,46 +1203,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:L11"/>
+      <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="7.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="13.4285714285714" customWidth="1"/>
-    <col min="4" max="7" width="11.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.85714285714286" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.57142857142857" style="1" customWidth="1"/>
-    <col min="11" max="12" width="3.27619047619048" customWidth="1"/>
-    <col min="13" max="13" width="11.152380952381" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="3.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1878,21 +1259,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1907,21 +1288,21 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1936,21 +1317,21 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1965,21 +1346,21 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1994,21 +1375,21 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2023,21 +1404,21 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2052,21 +1433,21 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2081,21 +1462,21 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2113,21 +1494,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2145,21 +1526,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -2177,21 +1558,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -2209,21 +1590,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -2241,7 +1622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2263,7 +1644,7 @@
       <c r="G14" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -2281,7 +1662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2303,7 +1684,7 @@
       <c r="G15" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -2321,7 +1702,7 @@
         <v>8C</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -2343,7 +1724,7 @@
       <c r="G16" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -2361,7 +1742,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -2383,7 +1764,7 @@
       <c r="G17" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -2401,7 +1782,7 @@
         <v>9C</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -2423,7 +1804,7 @@
       <c r="G18" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -2441,7 +1822,7 @@
         <v>A4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2454,7 +1835,7 @@
       <c r="D19" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>95</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -2472,7 +1853,7 @@
         <v>C1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -2494,7 +1875,7 @@
       <c r="G20" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -2512,7 +1893,7 @@
         <v>CC</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2534,7 +1915,7 @@
       <c r="G21" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2552,7 +1933,7 @@
         <v>D4</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -2574,7 +1955,7 @@
       <c r="G22" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>95</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -2594,51 +1975,49 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="K13:L13"/>
   </mergeCells>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -2649,7 +2028,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -2660,7 +2039,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -2671,7 +2050,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -2685,22 +2064,22 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="14:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -2711,7 +2090,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -2722,7 +2101,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -2730,7 +2109,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>140</v>
       </c>
@@ -2738,12 +2117,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -2751,17 +2130,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -2772,12 +2151,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -2788,7 +2167,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -2796,7 +2175,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -2805,46 +2184,43 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="T68" sqref="T68"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
-    <col min="2" max="5" width="2.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="5" width="2.140625" customWidth="1"/>
     <col min="6" max="9" width="2" customWidth="1"/>
-    <col min="10" max="10" width="5.42857142857143" customWidth="1"/>
-    <col min="11" max="11" width="5.14285714285714" customWidth="1"/>
-    <col min="12" max="12" width="5.71428571428571" customWidth="1"/>
-    <col min="19" max="19" width="12.1428571428571" customWidth="1"/>
-    <col min="20" max="20" width="13.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" t="s">
         <v>6</v>
       </c>
@@ -2879,7 +2255,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -2942,7 +2318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -3002,7 +2378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -3062,7 +2438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -3122,7 +2498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -3182,7 +2558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -3242,7 +2618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -3302,7 +2678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
@@ -3362,7 +2738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -3425,7 +2801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0</v>
       </c>
@@ -3485,7 +2861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0</v>
       </c>
@@ -3545,7 +2921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -3605,7 +2981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -3665,7 +3041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
@@ -3725,7 +3101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0</v>
       </c>
@@ -3785,7 +3161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -3845,7 +3221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -3905,7 +3281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -3965,7 +3341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0</v>
       </c>
@@ -4025,7 +3401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0</v>
       </c>
@@ -4085,7 +3461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0</v>
       </c>
@@ -4145,7 +3521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0</v>
       </c>
@@ -4205,7 +3581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -4265,7 +3641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0</v>
       </c>
@@ -4325,7 +3701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0</v>
       </c>
@@ -4385,7 +3761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0</v>
       </c>
@@ -4445,7 +3821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0</v>
       </c>
@@ -4505,7 +3881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0</v>
       </c>
@@ -4565,7 +3941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0</v>
       </c>
@@ -4625,7 +4001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0</v>
       </c>
@@ -4685,7 +4061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0</v>
       </c>
@@ -4745,7 +4121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0</v>
       </c>
@@ -4805,7 +4181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0</v>
       </c>
@@ -4865,7 +4241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:20">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0</v>
       </c>
@@ -4925,7 +4301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:20">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0</v>
       </c>
@@ -4985,7 +4361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:20">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0</v>
       </c>
@@ -5045,7 +4421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:20">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0</v>
       </c>
@@ -5105,7 +4481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:20">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0</v>
       </c>
@@ -5165,7 +4541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:20">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0</v>
       </c>
@@ -5225,7 +4601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0</v>
       </c>
@@ -5285,7 +4661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:20">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0</v>
       </c>
@@ -5345,7 +4721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:20">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0</v>
       </c>
@@ -5405,7 +4781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:20">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0</v>
       </c>
@@ -5465,7 +4841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0</v>
       </c>
@@ -5525,7 +4901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:20">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0</v>
       </c>
@@ -5585,7 +4961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:20">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0</v>
       </c>
@@ -5645,7 +5021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0</v>
       </c>
@@ -5705,7 +5081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0</v>
       </c>
@@ -5765,7 +5141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:20">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0</v>
       </c>
@@ -5825,7 +5201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:20">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0</v>
       </c>
@@ -5885,7 +5261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:20">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0</v>
       </c>
@@ -5945,7 +5321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:20">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0</v>
       </c>
@@ -6005,7 +5381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0</v>
       </c>
@@ -6065,7 +5441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0</v>
       </c>
@@ -6125,7 +5501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0</v>
       </c>
@@ -6185,7 +5561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:20">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0</v>
       </c>
@@ -6245,7 +5621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:20">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0</v>
       </c>
@@ -6305,7 +5681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:20">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0</v>
       </c>
@@ -6365,7 +5741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:20">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0</v>
       </c>
@@ -6425,7 +5801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:20">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0</v>
       </c>
@@ -6485,7 +5861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0</v>
       </c>
@@ -6545,7 +5921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:20">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0</v>
       </c>
@@ -6605,7 +5981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="2:20">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0</v>
       </c>
@@ -6665,7 +6041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0</v>
       </c>
@@ -6725,7 +6101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -6788,7 +6164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -6851,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>44</v>
       </c>
@@ -6914,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -6977,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>52</v>
       </c>
@@ -7040,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0</v>
       </c>
@@ -7100,7 +6476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0</v>
       </c>
@@ -7160,7 +6536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="2:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0</v>
       </c>
@@ -7220,7 +6596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0</v>
       </c>
@@ -7280,7 +6656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0</v>
       </c>
@@ -7340,7 +6716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0</v>
       </c>
@@ -7400,7 +6776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>0</v>
       </c>
@@ -7460,7 +6836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="2:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>0</v>
       </c>
@@ -7520,7 +6896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="2:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>0</v>
       </c>
@@ -7580,7 +6956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="2:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>0</v>
       </c>
@@ -7640,7 +7016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="2:20">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>0</v>
       </c>
@@ -7700,7 +7076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:20">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>0</v>
       </c>
@@ -7760,7 +7136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:20">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>0</v>
       </c>
@@ -7820,7 +7196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:20">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>0</v>
       </c>
@@ -7880,7 +7256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:20">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>0</v>
       </c>
@@ -7940,7 +7316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:20">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>0</v>
       </c>
@@ -8000,7 +7376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:20">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>0</v>
       </c>
@@ -8060,7 +7436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="2:20">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>0</v>
       </c>
@@ -8120,7 +7496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:20">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>0</v>
       </c>
@@ -8180,7 +7556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:20">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>0</v>
       </c>
@@ -8240,7 +7616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:20">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>0</v>
       </c>
@@ -8300,7 +7676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="2:20">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>0</v>
       </c>
@@ -8360,7 +7736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:20">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>0</v>
       </c>
@@ -8420,7 +7796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="2:20">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>0</v>
       </c>
@@ -8480,7 +7856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:20">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>0</v>
       </c>
@@ -8540,7 +7916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:20">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>0</v>
       </c>
@@ -8600,7 +7976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:20">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>0</v>
       </c>
@@ -8660,7 +8036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="2:20">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>0</v>
       </c>
@@ -8720,7 +8096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="2:20">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>0</v>
       </c>
@@ -8780,7 +8156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="2:20">
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>0</v>
       </c>
@@ -8840,7 +8216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:20">
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0</v>
       </c>
@@ -8900,7 +8276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:20">
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>0</v>
       </c>
@@ -8960,7 +8336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:20">
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>0</v>
       </c>
@@ -9020,7 +8396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:20">
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>0</v>
       </c>
@@ -9080,7 +8456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="2:20">
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>0</v>
       </c>
@@ -9140,7 +8516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="2:20">
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>0</v>
       </c>
@@ -9200,7 +8576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="2:20">
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>0</v>
       </c>
@@ -9260,7 +8636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="2:20">
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>0</v>
       </c>
@@ -9320,7 +8696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="2:20">
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>0</v>
       </c>
@@ -9380,7 +8756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="2:20">
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>0</v>
       </c>
@@ -9440,7 +8816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="2:20">
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>0</v>
       </c>
@@ -9500,7 +8876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="2:20">
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>0</v>
       </c>
@@ -9560,7 +8936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="2:20">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>0</v>
       </c>
@@ -9620,7 +8996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="2:20">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>0</v>
       </c>
@@ -9680,7 +9056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="2:20">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>0</v>
       </c>
@@ -9740,7 +9116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="2:20">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>0</v>
       </c>
@@ -9800,7 +9176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="2:20">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>0</v>
       </c>
@@ -9860,7 +9236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:20">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>0</v>
       </c>
@@ -9920,7 +9296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="2:20">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>0</v>
       </c>
@@ -9980,7 +9356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="2:20">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>0</v>
       </c>
@@ -10040,7 +9416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="2:20">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>0</v>
       </c>
@@ -10100,7 +9476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="2:20">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>0</v>
       </c>
@@ -10160,7 +9536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="2:20">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>0</v>
       </c>
@@ -10220,7 +9596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="2:20">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>0</v>
       </c>
@@ -10280,7 +9656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="2:20">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>0</v>
       </c>
@@ -10340,7 +9716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="2:20">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>0</v>
       </c>
@@ -10400,7 +9776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="2:20">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>0</v>
       </c>
@@ -10460,7 +9836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="2:20">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>0</v>
       </c>
@@ -10520,7 +9896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="2:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>0</v>
       </c>
@@ -10580,7 +9956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -10643,7 +10019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>164</v>
       </c>
@@ -10706,7 +10082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -10769,7 +10145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -10832,7 +10208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -10895,7 +10271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="2:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>1</v>
       </c>
@@ -10955,7 +10331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="2:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>1</v>
       </c>
@@ -11015,7 +10391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="2:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>1</v>
       </c>
@@ -11075,7 +10451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>168</v>
       </c>
@@ -11138,7 +10514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>169</v>
       </c>
@@ -11201,7 +10577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>170</v>
       </c>
@@ -11264,7 +10640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>171</v>
       </c>
@@ -11327,7 +10703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>172</v>
       </c>
@@ -11390,7 +10766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="2:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>1</v>
       </c>
@@ -11450,7 +10826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="2:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>1</v>
       </c>
@@ -11510,7 +10886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="2:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>1</v>
       </c>
@@ -11570,7 +10946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>173</v>
       </c>
@@ -11633,7 +11009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>174</v>
       </c>
@@ -11696,7 +11072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>175</v>
       </c>
@@ -11759,7 +11135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>176</v>
       </c>
@@ -11822,7 +11198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>177</v>
       </c>
@@ -11885,7 +11261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="2:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>1</v>
       </c>
@@ -11945,7 +11321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="2:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>1</v>
       </c>
@@ -12005,7 +11381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="2:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>1</v>
       </c>
@@ -12065,7 +11441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>178</v>
       </c>
@@ -12128,7 +11504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>179</v>
       </c>
@@ -12191,7 +11567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -12254,7 +11630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>181</v>
       </c>
@@ -12317,7 +11693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>182</v>
       </c>
@@ -12380,7 +11756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="2:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>1</v>
       </c>
@@ -12440,7 +11816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="2:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>1</v>
       </c>
@@ -12500,7 +11876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="2:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>1</v>
       </c>
@@ -12560,7 +11936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>183</v>
       </c>
@@ -12623,7 +11999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>184</v>
       </c>
@@ -12686,7 +12062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>185</v>
       </c>
@@ -12749,7 +12125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>186</v>
       </c>
@@ -12812,7 +12188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>187</v>
       </c>
@@ -12875,7 +12251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="2:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>1</v>
       </c>
@@ -12935,7 +12311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="2:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>1</v>
       </c>
@@ -12995,7 +12371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="2:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>1</v>
       </c>
@@ -13055,7 +12431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="2:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>1</v>
       </c>
@@ -13115,7 +12491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="2:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>1</v>
       </c>
@@ -13175,7 +12551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="2:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>1</v>
       </c>
@@ -13235,7 +12611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="2:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>1</v>
       </c>
@@ -13295,7 +12671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="2:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>1</v>
       </c>
@@ -13355,7 +12731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="2:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>1</v>
       </c>
@@ -13415,7 +12791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="2:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>1</v>
       </c>
@@ -13475,7 +12851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="2:20">
+    <row r="177" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>1</v>
       </c>
@@ -13535,7 +12911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="2:20">
+    <row r="178" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>1</v>
       </c>
@@ -13595,7 +12971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="2:20">
+    <row r="179" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>1</v>
       </c>
@@ -13655,7 +13031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="2:20">
+    <row r="180" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>1</v>
       </c>
@@ -13715,7 +13091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="2:20">
+    <row r="181" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>1</v>
       </c>
@@ -13775,7 +13151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="2:20">
+    <row r="182" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>1</v>
       </c>
@@ -13835,7 +13211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="2:20">
+    <row r="183" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>1</v>
       </c>
@@ -13895,7 +13271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="2:20">
+    <row r="184" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>1</v>
       </c>
@@ -13955,7 +13331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="2:20">
+    <row r="185" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>1</v>
       </c>
@@ -14015,7 +13391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="2:20">
+    <row r="186" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>1</v>
       </c>
@@ -14075,7 +13451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="2:20">
+    <row r="187" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>1</v>
       </c>
@@ -14135,7 +13511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="2:20">
+    <row r="188" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>1</v>
       </c>
@@ -14195,7 +13571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="2:20">
+    <row r="189" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>1</v>
       </c>
@@ -14255,7 +13631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="2:20">
+    <row r="190" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>1</v>
       </c>
@@ -14315,7 +13691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="2:20">
+    <row r="191" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>1</v>
       </c>
@@ -14375,7 +13751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="2:20">
+    <row r="192" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>1</v>
       </c>
@@ -14435,7 +13811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="2:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>1</v>
       </c>
@@ -14495,7 +13871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>188</v>
       </c>
@@ -14558,7 +13934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>189</v>
       </c>
@@ -14621,7 +13997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="2:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>1</v>
       </c>
@@ -14681,7 +14057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="2:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>1</v>
       </c>
@@ -14741,7 +14117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="2:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>1</v>
       </c>
@@ -14801,7 +14177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="2:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>1</v>
       </c>
@@ -14861,7 +14237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="2:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>1</v>
       </c>
@@ -14921,7 +14297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="2:20">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>1</v>
       </c>
@@ -14981,7 +14357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>190</v>
       </c>
@@ -15044,7 +14420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>191</v>
       </c>
@@ -15107,7 +14483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>192</v>
       </c>
@@ -15170,7 +14546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:20">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>193</v>
       </c>
@@ -15233,7 +14609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:20">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>194</v>
       </c>
@@ -15296,7 +14672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="2:20">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>1</v>
       </c>
@@ -15356,7 +14732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="2:20">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>1</v>
       </c>
@@ -15416,7 +14792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="2:20">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>1</v>
       </c>
@@ -15476,7 +14852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>195</v>
       </c>
@@ -15539,7 +14915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>196</v>
       </c>
@@ -15602,7 +14978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>197</v>
       </c>
@@ -15665,7 +15041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>198</v>
       </c>
@@ -15728,7 +15104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:20">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>199</v>
       </c>
@@ -15791,7 +15167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="2:20">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>1</v>
       </c>
@@ -15851,7 +15227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="2:20">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>1</v>
       </c>
@@ -15911,7 +15287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="2:20">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>1</v>
       </c>
@@ -15971,7 +15347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:20">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>200</v>
       </c>
@@ -16034,7 +15410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:20">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>201</v>
       </c>
@@ -16097,7 +15473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:20">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>202</v>
       </c>
@@ -16160,7 +15536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:20">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>203</v>
       </c>
@@ -16223,7 +15599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:20">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>204</v>
       </c>
@@ -16286,7 +15662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="2:20">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>1</v>
       </c>
@@ -16346,7 +15722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="2:20">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>1</v>
       </c>
@@ -16406,7 +15782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="2:20">
+    <row r="225" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>1</v>
       </c>
@@ -16466,7 +15842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="2:20">
+    <row r="226" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>1</v>
       </c>
@@ -16526,7 +15902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="2:20">
+    <row r="227" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>1</v>
       </c>
@@ -16586,7 +15962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="2:20">
+    <row r="228" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>1</v>
       </c>
@@ -16646,7 +16022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="2:20">
+    <row r="229" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>1</v>
       </c>
@@ -16706,7 +16082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="2:20">
+    <row r="230" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>1</v>
       </c>
@@ -16766,7 +16142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="2:20">
+    <row r="231" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>1</v>
       </c>
@@ -16826,7 +16202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="2:20">
+    <row r="232" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>1</v>
       </c>
@@ -16886,7 +16262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="2:20">
+    <row r="233" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>1</v>
       </c>
@@ -16946,7 +16322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="2:20">
+    <row r="234" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>1</v>
       </c>
@@ -17006,7 +16382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="2:20">
+    <row r="235" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>1</v>
       </c>
@@ -17066,7 +16442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="2:20">
+    <row r="236" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>1</v>
       </c>
@@ -17126,7 +16502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="2:20">
+    <row r="237" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>1</v>
       </c>
@@ -17186,7 +16562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="2:20">
+    <row r="238" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>1</v>
       </c>
@@ -17246,7 +16622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="2:20">
+    <row r="239" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>1</v>
       </c>
@@ -17306,7 +16682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="2:20">
+    <row r="240" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>1</v>
       </c>
@@ -17366,7 +16742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="2:20">
+    <row r="241" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>1</v>
       </c>
@@ -17426,7 +16802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="2:20">
+    <row r="242" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>1</v>
       </c>
@@ -17486,7 +16862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="2:20">
+    <row r="243" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>1</v>
       </c>
@@ -17546,7 +16922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="2:20">
+    <row r="244" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>1</v>
       </c>
@@ -17606,7 +16982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="2:20">
+    <row r="245" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>1</v>
       </c>
@@ -17666,7 +17042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="2:20">
+    <row r="246" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>1</v>
       </c>
@@ -17726,7 +17102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="2:20">
+    <row r="247" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>1</v>
       </c>
@@ -17786,7 +17162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="2:20">
+    <row r="248" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>1</v>
       </c>
@@ -17846,7 +17222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="2:20">
+    <row r="249" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>1</v>
       </c>
@@ -17906,7 +17282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="2:20">
+    <row r="250" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>1</v>
       </c>
@@ -17966,7 +17342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="2:20">
+    <row r="251" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>1</v>
       </c>
@@ -18026,7 +17402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="2:20">
+    <row r="252" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>1</v>
       </c>
@@ -18086,7 +17462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="2:20">
+    <row r="253" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>1</v>
       </c>
@@ -18146,7 +17522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="2:20">
+    <row r="254" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>1</v>
       </c>
@@ -18206,7 +17582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="2:20">
+    <row r="255" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>1</v>
       </c>
@@ -18266,7 +17642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="2:20">
+    <row r="256" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>1</v>
       </c>
@@ -18326,7 +17702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="2:20">
+    <row r="257" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>1</v>
       </c>
@@ -18390,30 +17766,28 @@
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
   </mergeCells>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.28571428571429" customWidth="1"/>
-    <col min="3" max="3" width="6.14285714285714" customWidth="1"/>
-    <col min="4" max="4" width="5.57142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>205</v>
       </c>
@@ -18427,7 +17801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -18449,7 +17823,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -18468,7 +17842,7 @@
         <v>1h</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>211</v>
       </c>
@@ -18487,7 +17861,7 @@
         <v>2h</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>212</v>
       </c>
@@ -18506,7 +17880,7 @@
         <v>3h</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -18528,7 +17902,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -18547,7 +17921,7 @@
         <v>5h</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -18566,7 +17940,7 @@
         <v>6h</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>217</v>
       </c>
@@ -18585,7 +17959,7 @@
         <v>7h</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>218</v>
       </c>
@@ -18607,7 +17981,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>220</v>
       </c>
@@ -18626,7 +18000,7 @@
         <v>9h</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>221</v>
       </c>
@@ -18645,7 +18019,7 @@
         <v>Ah</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -18664,7 +18038,7 @@
         <v>Bh</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -18686,7 +18060,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>225</v>
       </c>
@@ -18705,7 +18079,7 @@
         <v>Dh</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>226</v>
       </c>
@@ -18724,7 +18098,7 @@
         <v>Eh</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>227</v>
       </c>
@@ -18743,7 +18117,7 @@
         <v>Fh</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>228</v>
       </c>
@@ -18765,7 +18139,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>230</v>
       </c>
@@ -18784,7 +18158,7 @@
         <v>11h</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -18803,7 +18177,7 @@
         <v>12h</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>232</v>
       </c>
@@ -18822,7 +18196,7 @@
         <v>13h</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>233</v>
       </c>
@@ -18841,7 +18215,7 @@
         <v>14h</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>234</v>
       </c>
@@ -18860,7 +18234,7 @@
         <v>15h</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>235</v>
       </c>
@@ -18879,7 +18253,7 @@
         <v>16h</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>236</v>
       </c>
@@ -18898,7 +18272,7 @@
         <v>17h</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -18920,7 +18294,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>239</v>
       </c>
@@ -18939,17 +18313,16 @@
         <v>1Fh</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>